--- a/console/Networking/diskChExcel/diskMixins/components/exportExcel.xlsx
+++ b/console/Networking/diskChExcel/diskMixins/components/exportExcel.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\韩凯\2019.1\1.18\Console_190117-译文-提交\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\han\Desktop\MobileFile\translation_review-确认by-GTCOM\translation_review-确认\translation_review\diskChExcel\diskMixins\components\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21840" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="ch" sheetId="1" r:id="rId1"/>
@@ -255,15 +255,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Operated</t>
+    <t>Successful Operation</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -290,6 +290,19 @@
       <name val="宋体"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -311,10 +324,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -654,10 +668,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="33.875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -665,7 +679,7 @@
     <col min="1" max="16384" width="33.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -676,7 +690,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -687,7 +701,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -698,7 +712,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -709,7 +723,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -720,7 +734,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -731,7 +745,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
@@ -742,7 +756,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
@@ -753,7 +767,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>23</v>
       </c>
@@ -763,8 +777,9 @@
       <c r="C9" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>25</v>
       </c>
@@ -778,6 +793,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="A1:B10" numberStoredAsText="1"/>
   </ignoredErrors>
